--- a/Design/PaintWithVoice/QOC.xlsx
+++ b/Design/PaintWithVoice/QOC.xlsx
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
